--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_Hidden column3.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_Hidden column3.xlsx
@@ -10555,7 +10555,7 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>173.54</v>
+        <v>625.33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -10573,7 +10573,7 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
+        <v>1355.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -10591,7 +10591,7 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
+        <v>373.12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -10609,7 +10609,7 @@
         <v>1791.06</v>
       </c>
       <c r="F5" s="107">
-        <v>895.53</v>
+        <v>3333.03</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -10627,7 +10627,7 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
+        <v>723.33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
@@ -10645,7 +10645,7 @@
         <v>254.17</v>
       </c>
       <c r="F7" s="107">
-        <v>127.08</v>
+        <v>444.38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
@@ -10663,7 +10663,7 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>585.42</v>
+        <v>2056.67</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -10681,7 +10681,7 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
@@ -10699,7 +10699,7 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
+        <v>1899.17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -10717,7 +10717,7 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>433.33</v>
+        <v>1708.33</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25">
@@ -10735,7 +10735,7 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>500.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25">
@@ -10753,7 +10753,7 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>366.5</v>
+        <v>733.0</v>
       </c>
     </row>
   </sheetData>
@@ -15903,7 +15903,7 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>173.54</v>
+        <v>798.88</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -15921,7 +15921,7 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
+        <v>1710.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -15939,7 +15939,7 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
+        <v>480.0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -15957,7 +15957,7 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>798.41</v>
+        <v>4131.44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -15975,7 +15975,7 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
+        <v>928.33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
@@ -15993,7 +15993,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
+        <v>317.29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
@@ -16011,7 +16011,7 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>585.42</v>
+        <v>2642.08</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -16029,7 +16029,7 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
@@ -16047,7 +16047,7 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
+        <v>2374.17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -16065,7 +16065,7 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>433.33</v>
+        <v>2141.67</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25">
@@ -16083,7 +16083,7 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>500.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25">
@@ -16101,7 +16101,7 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>366.5</v>
+        <v>1099.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25">
@@ -21271,7 +21271,7 @@
         <v>347.08</v>
       </c>
       <c r="F2" s="107">
-        <v>173.54</v>
+        <v>451.79</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -21289,7 +21289,7 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -21307,7 +21307,7 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
+        <v>266.25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -21325,7 +21325,7 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>268.56</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -21343,7 +21343,7 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
+        <v>518.33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
@@ -21361,7 +21361,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
+        <v>317.29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
@@ -21379,7 +21379,7 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>585.42</v>
+        <v>1471.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -21397,7 +21397,7 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
@@ -21415,7 +21415,7 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
+        <v>1424.17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -21433,7 +21433,7 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>433.33</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25">
@@ -21487,7 +21487,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>75.0</v>
+        <v>366.5</v>
       </c>
     </row>
   </sheetData>
@@ -32125,7 +32125,7 @@
         <v>347.08</v>
       </c>
       <c r="E2" s="107">
-        <v>173.54</v>
+        <v>1319.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -32140,7 +32140,7 @@
         <v>710.0</v>
       </c>
       <c r="E3" s="107">
-        <v>355.0</v>
+        <v>2775.0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -32155,7 +32155,7 @@
         <v>213.75</v>
       </c>
       <c r="E4" s="107">
-        <v>106.88</v>
+        <v>800.62</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -32170,7 +32170,7 @@
         <v>1596.82</v>
       </c>
       <c r="E5" s="107">
-        <v>0.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
@@ -32185,7 +32185,7 @@
         <v>410.0</v>
       </c>
       <c r="E6" s="107">
-        <v>205.0</v>
+        <v>1543.33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
@@ -32200,7 +32200,7 @@
         <v>0.0</v>
       </c>
       <c r="E7" s="107">
-        <v>0.0</v>
+        <v>317.29</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
@@ -32215,7 +32215,7 @@
         <v>1170.83</v>
       </c>
       <c r="E8" s="107">
-        <v>585.42</v>
+        <v>4398.33</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -32230,7 +32230,7 @@
         <v>100.0</v>
       </c>
       <c r="E9" s="107">
-        <v>50.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -32245,7 +32245,7 @@
         <v>950.0</v>
       </c>
       <c r="E10" s="107">
-        <v>475.0</v>
+        <v>3799.17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
@@ -32260,7 +32260,7 @@
         <v>866.67</v>
       </c>
       <c r="E11" s="107">
-        <v>433.33</v>
+        <v>3441.67</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -32275,7 +32275,7 @@
         <v>1000.0</v>
       </c>
       <c r="E12" s="107">
-        <v>500.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
@@ -32290,7 +32290,7 @@
         <v>733.0</v>
       </c>
       <c r="E13" s="107">
-        <v>366.5</v>
+        <v>2199.0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -32305,7 +32305,7 @@
         <v>150.0</v>
       </c>
       <c r="E14" s="107">
-        <v>75.0</v>
+        <v>300.0</v>
       </c>
     </row>
   </sheetData>
@@ -37486,7 +37486,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="107">
-        <v>0.0</v>
+        <v>1319.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -37504,7 +37504,7 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
+        <v>3130.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -37522,7 +37522,7 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
+        <v>907.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -37540,7 +37540,7 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>0.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -37558,7 +37558,7 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
+        <v>1748.33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
@@ -37576,7 +37576,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
+        <v>317.29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
@@ -37594,7 +37594,7 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>0.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -37612,7 +37612,7 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
@@ -37630,7 +37630,7 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>475.0</v>
+        <v>4274.17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -37648,7 +37648,7 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>108.35</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25">
@@ -37666,7 +37666,7 @@
         <v>1000.0</v>
       </c>
       <c r="F12" s="107">
-        <v>500.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25">
@@ -37684,7 +37684,7 @@
         <v>733.0</v>
       </c>
       <c r="F13" s="107">
-        <v>366.5</v>
+        <v>2565.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25">
@@ -37702,7 +37702,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>75.0</v>
+        <v>375.0</v>
       </c>
     </row>
   </sheetData>
@@ -43105,7 +43105,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="107">
-        <v>0.0</v>
+        <v>451.79</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -43123,7 +43123,7 @@
         <v>710.0</v>
       </c>
       <c r="F3" s="107">
-        <v>355.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -43141,7 +43141,7 @@
         <v>213.75</v>
       </c>
       <c r="F4" s="107">
-        <v>106.88</v>
+        <v>266.25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -43159,7 +43159,7 @@
         <v>1596.82</v>
       </c>
       <c r="F5" s="107">
-        <v>0.0</v>
+        <v>2437.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -43177,7 +43177,7 @@
         <v>410.0</v>
       </c>
       <c r="F6" s="107">
-        <v>205.0</v>
+        <v>518.33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
@@ -43195,7 +43195,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="107">
-        <v>0.0</v>
+        <v>317.29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
@@ -43213,7 +43213,7 @@
         <v>1170.83</v>
       </c>
       <c r="F8" s="107">
-        <v>0.0</v>
+        <v>1471.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -43231,7 +43231,7 @@
         <v>100.0</v>
       </c>
       <c r="F9" s="107">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25">
@@ -43249,7 +43249,7 @@
         <v>950.0</v>
       </c>
       <c r="F10" s="107">
-        <v>125.83</v>
+        <v>1424.17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25">
@@ -43267,7 +43267,7 @@
         <v>866.67</v>
       </c>
       <c r="F11" s="107">
-        <v>0.0</v>
+        <v>1275.0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25">
@@ -43321,7 +43321,7 @@
         <v>150.0</v>
       </c>
       <c r="F14" s="107">
-        <v>75.0</v>
+        <v>366.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25">
@@ -43339,7 +43339,7 @@
         <v>325.0</v>
       </c>
       <c r="F15" s="107">
-        <v>162.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25">
@@ -43357,7 +43357,7 @@
         <v>97.5</v>
       </c>
       <c r="F16" s="107">
-        <v>48.75</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25">
@@ -43375,7 +43375,7 @@
         <v>7331.26</v>
       </c>
       <c r="F17" s="107">
-        <v>3665.63</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_Hidden column3.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_Hidden column3.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="226">
   <si>
     <t>Square Inc PRSA - 604425</t>
   </si>
@@ -721,7 +721,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -730,43 +730,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
+    <t>18/08/2021</t>
   </si>
   <si>
-    <t>8,000.00</t>
+    <t>7,517.33</t>
   </si>
   <si>
-    <t>ILIM Test 2</t>
+    <t>01/08/2021</t>
   </si>
   <si>
-    <t>1158565</t>
+    <t>ILIM August 2021</t>
   </si>
   <si>
-    <t>15/04/2021</t>
+    <t>1173971</t>
   </si>
   <si>
-    <t>7,433.97</t>
+    <t>16/07/2021</t>
   </si>
   <si>
-    <t>01/04/2021</t>
+    <t>1,533.32</t>
   </si>
   <si>
-    <t>ILIM April 2021</t>
+    <t>01/06/2021</t>
   </si>
   <si>
-    <t>1155233</t>
+    <t>ILIM Julne 2021</t>
   </si>
   <si>
-    <t>15/03/2021</t>
+    <t>1173522</t>
   </si>
   <si>
-    <t>29/03/2021</t>
+    <t>5,984.01</t>
   </si>
   <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -1226,14 +1223,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1246,6 +1235,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -1273,7 +1270,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1500,11 +1497,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5415,33 +5415,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="112"/>
+      <c r="A1" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="113"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="107" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -10704,7 +10704,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -10724,7 +10724,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -10744,7 +10744,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -10764,7 +10764,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -10784,7 +10784,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -10804,7 +10804,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -10824,7 +10824,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -10844,7 +10844,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -10864,8 +10864,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -10884,11 +10884,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -10904,11 +10904,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -16034,7 +16034,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -16054,7 +16054,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -16074,7 +16074,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -16094,7 +16094,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -16114,7 +16114,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -16134,7 +16134,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -16154,7 +16154,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -16174,7 +16174,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -16194,8 +16194,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -16214,11 +16214,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -16234,11 +16234,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -16254,8 +16254,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
-        <v>223</v>
+      <c r="A14" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B14" s="107" t="s">
         <v>88</v>
@@ -21386,7 +21386,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -21406,7 +21406,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -21426,7 +21426,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -21446,7 +21446,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -21466,7 +21466,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -21486,7 +21486,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -21506,7 +21506,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -21526,7 +21526,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -21546,8 +21546,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -21566,11 +21566,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -21586,11 +21586,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -21606,11 +21606,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -26722,7 +26722,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -26736,7 +26736,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -26750,7 +26750,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -26764,7 +26764,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -26778,7 +26778,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -26792,7 +26792,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -26806,7 +26806,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -26820,7 +26820,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -26834,8 +26834,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -26848,11 +26848,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -26862,11 +26862,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -26876,11 +26876,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -26912,25 +26912,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="113"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="112"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="107" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -26997,7 +26997,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -27017,7 +27017,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -27037,7 +27037,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -27057,7 +27057,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -27077,7 +27077,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -27097,7 +27097,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -27117,7 +27117,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -27137,7 +27137,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -32244,7 +32244,7 @@
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>122</v>
@@ -32260,8 +32260,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="110" t="s">
-        <v>205</v>
+      <c r="A3" s="111" t="s">
+        <v>204</v>
       </c>
       <c r="B3" s="107" t="s">
         <v>124</v>
@@ -32277,8 +32277,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="110" t="s">
-        <v>206</v>
+      <c r="A4" s="111" t="s">
+        <v>205</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>126</v>
@@ -32294,8 +32294,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="110" t="s">
-        <v>207</v>
+      <c r="A5" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="B5" s="107" t="s">
         <v>128</v>
@@ -32311,8 +32311,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="110" t="s">
-        <v>208</v>
+      <c r="A6" s="111" t="s">
+        <v>207</v>
       </c>
       <c r="B6" s="107" t="s">
         <v>130</v>
@@ -32328,8 +32328,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="110" t="s">
-        <v>209</v>
+      <c r="A7" s="111" t="s">
+        <v>208</v>
       </c>
       <c r="B7" s="107" t="s">
         <v>132</v>
@@ -32345,8 +32345,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="110" t="s">
-        <v>210</v>
+      <c r="A8" s="111" t="s">
+        <v>209</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>134</v>
@@ -32362,8 +32362,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
-      <c r="A9" s="110" t="s">
-        <v>211</v>
+      <c r="A9" s="111" t="s">
+        <v>210</v>
       </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
@@ -32379,8 +32379,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="110" t="s">
-        <v>212</v>
+      <c r="A10" s="111" t="s">
+        <v>211</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>137</v>
@@ -32396,8 +32396,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="110" t="s">
-        <v>213</v>
+      <c r="A11" s="111" t="s">
+        <v>212</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -32413,11 +32413,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="107" t="s">
         <v>214</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
@@ -32430,11 +32430,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="107" t="s">
         <v>216</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
@@ -32447,11 +32447,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="45">
-      <c r="A14" s="110" t="s">
-        <v>226</v>
+      <c r="A14" s="111" t="s">
+        <v>225</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>90</v>
@@ -32486,25 +32486,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="113"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="112"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -37639,7 +37639,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -37659,7 +37659,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -37679,7 +37679,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -37699,7 +37699,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -37719,7 +37719,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -37739,7 +37739,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -37759,7 +37759,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -37779,7 +37779,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -37799,8 +37799,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -37819,11 +37819,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -37839,11 +37839,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -37859,11 +37859,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -43200,7 +43200,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -43220,7 +43220,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -43240,7 +43240,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -43260,7 +43260,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -43280,7 +43280,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -43300,7 +43300,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -43320,7 +43320,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -43340,7 +43340,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -43360,8 +43360,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="110" t="s">
-        <v>220</v>
+      <c r="A11" s="111" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -43380,11 +43380,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="110" t="s">
-        <v>221</v>
+      <c r="A12" s="111" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>52</v>
@@ -43400,11 +43400,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="110" t="s">
-        <v>222</v>
+      <c r="A13" s="111" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>55</v>
@@ -43420,11 +43420,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="107" t="s">
         <v>224</v>
-      </c>
-      <c r="B14" s="107" t="s">
-        <v>225</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>89</v>
@@ -43440,8 +43440,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="110" t="s">
-        <v>223</v>
+      <c r="A15" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B15" s="107" t="s">
         <v>88</v>
@@ -43460,8 +43460,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="110" t="s">
-        <v>223</v>
+      <c r="A16" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B16" s="107" t="s">
         <v>88</v>
@@ -43480,8 +43480,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="110" t="s">
-        <v>223</v>
+      <c r="A17" s="111" t="s">
+        <v>222</v>
       </c>
       <c r="B17" s="107" t="s">
         <v>88</v>
@@ -48772,31 +48772,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="112" t="s">
         <v>150</v>
       </c>
     </row>
@@ -48823,10 +48823,10 @@
         <v>156</v>
       </c>
       <c r="H13" s="107" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I13" s="107" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -48834,7 +48834,7 @@
         <v>151</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>153</v>
@@ -48843,19 +48843,19 @@
         <v>154</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" s="107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H14" s="107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I14" s="107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -48863,7 +48863,7 @@
         <v>151</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>153</v>
@@ -48872,106 +48872,106 @@
         <v>154</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F15" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="H15" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="107" t="s">
         <v>166</v>
-      </c>
-      <c r="H15" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" s="107" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="C16" s="107" t="s">
         <v>169</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>170</v>
       </c>
       <c r="D16" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E16" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="G16" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="107" t="s">
+      <c r="H16" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="107" t="s">
         <v>173</v>
-      </c>
-      <c r="H16" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="107" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E17" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="107" t="s">
+      <c r="H17" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="107" t="s">
         <v>177</v>
-      </c>
-      <c r="H17" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="107" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D18" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E18" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="107" t="s">
+      <c r="H18" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="107" t="s">
         <v>181</v>
-      </c>
-      <c r="H18" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="107" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -48979,28 +48979,28 @@
         <v>151</v>
       </c>
       <c r="B19" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="107" t="s">
         <v>183</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>184</v>
       </c>
       <c r="D19" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E19" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="F19" s="107" t="s">
+      <c r="G19" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="G19" s="107" t="s">
+      <c r="H19" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="H19" s="107" t="s">
+      <c r="I19" s="107" t="s">
         <v>188</v>
-      </c>
-      <c r="I19" s="107" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -49008,28 +49008,28 @@
         <v>151</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E20" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="F20" s="107" t="s">
+      <c r="G20" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="107" t="s">
+      <c r="I20" s="107" t="s">
         <v>193</v>
-      </c>
-      <c r="I20" s="107" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -49037,28 +49037,28 @@
         <v>151</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="107" t="s">
         <v>154</v>
       </c>
       <c r="E21" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" s="107" t="s">
+      <c r="I21" s="107" t="s">
         <v>197</v>
-      </c>
-      <c r="I21" s="107" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -52873,7 +52873,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="107" t="s">
@@ -52887,7 +52887,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="111" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="107" t="s">
@@ -52901,7 +52901,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="107" t="s">
@@ -52915,7 +52915,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
@@ -52929,7 +52929,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
@@ -52943,7 +52943,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="111" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="107" t="s">
@@ -52957,7 +52957,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="107" t="s">
@@ -52971,7 +52971,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="111" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="107" t="s">
@@ -53007,25 +53007,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="113"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="112"/>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="107" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -58379,7 +58379,7 @@
     </row>
     <row r="2" spans="1:3" ht="45">
       <c r="A2" s="110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>122</v>
@@ -58389,8 +58389,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
-      <c r="A3" s="110" t="s">
-        <v>205</v>
+      <c r="A3" s="111" t="s">
+        <v>204</v>
       </c>
       <c r="B3" s="107" t="s">
         <v>124</v>
@@ -58400,8 +58400,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="110" t="s">
-        <v>206</v>
+      <c r="A4" s="111" t="s">
+        <v>205</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>126</v>
@@ -58411,8 +58411,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="110" t="s">
-        <v>207</v>
+      <c r="A5" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="B5" s="107" t="s">
         <v>128</v>
@@ -58422,8 +58422,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="110" t="s">
-        <v>208</v>
+      <c r="A6" s="111" t="s">
+        <v>207</v>
       </c>
       <c r="B6" s="107" t="s">
         <v>130</v>
@@ -58433,8 +58433,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="110" t="s">
-        <v>209</v>
+      <c r="A7" s="111" t="s">
+        <v>208</v>
       </c>
       <c r="B7" s="107" t="s">
         <v>132</v>
@@ -58444,8 +58444,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45">
-      <c r="A8" s="110" t="s">
-        <v>210</v>
+      <c r="A8" s="111" t="s">
+        <v>209</v>
       </c>
       <c r="B8" s="107" t="s">
         <v>134</v>
@@ -58455,8 +58455,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="110" t="s">
-        <v>211</v>
+      <c r="A9" s="111" t="s">
+        <v>210</v>
       </c>
       <c r="B9" s="107" t="s">
         <v>26</v>
@@ -58466,8 +58466,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45">
-      <c r="A10" s="110" t="s">
-        <v>212</v>
+      <c r="A10" s="111" t="s">
+        <v>211</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>137</v>
@@ -58477,8 +58477,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45">
-      <c r="A11" s="110" t="s">
-        <v>213</v>
+      <c r="A11" s="111" t="s">
+        <v>212</v>
       </c>
       <c r="B11" s="107" t="s">
         <v>48</v>
@@ -58488,22 +58488,22 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="107" t="s">
         <v>214</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>215</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="107" t="s">
         <v>216</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>217</v>
       </c>
       <c r="C13" s="107" t="s">
         <v>56</v>
